--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.35426266666666</v>
+        <v>1.854221333333333</v>
       </c>
       <c r="H2">
-        <v>109.062788</v>
+        <v>5.562664</v>
       </c>
       <c r="I2">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="J2">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>61.629167</v>
+        <v>200.005264</v>
       </c>
       <c r="N2">
-        <v>184.887501</v>
+        <v>600.0157919999999</v>
       </c>
       <c r="O2">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503665</v>
       </c>
       <c r="P2">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503667</v>
       </c>
       <c r="Q2">
-        <v>2240.482925045865</v>
+        <v>370.8540272877653</v>
       </c>
       <c r="R2">
-        <v>20164.34632541279</v>
+        <v>3337.686245589888</v>
       </c>
       <c r="S2">
-        <v>0.3461136651345584</v>
+        <v>0.03233570871166732</v>
       </c>
       <c r="T2">
-        <v>0.3461136651345584</v>
+        <v>0.03233570871166733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.35426266666666</v>
+        <v>1.854221333333333</v>
       </c>
       <c r="H3">
-        <v>109.062788</v>
+        <v>5.562664</v>
       </c>
       <c r="I3">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="J3">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.073051</v>
       </c>
       <c r="O3">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924051</v>
       </c>
       <c r="P3">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924052</v>
       </c>
       <c r="Q3">
-        <v>49.3575886362431</v>
+        <v>2.517446018651555</v>
       </c>
       <c r="R3">
-        <v>444.2182977261879</v>
+        <v>22.657014167864</v>
       </c>
       <c r="S3">
-        <v>0.007624845391198068</v>
+        <v>0.000219502540532742</v>
       </c>
       <c r="T3">
-        <v>0.007624845391198068</v>
+        <v>0.000219502540532742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.35426266666666</v>
+        <v>1.854221333333333</v>
       </c>
       <c r="H4">
-        <v>109.062788</v>
+        <v>5.562664</v>
       </c>
       <c r="I4">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="J4">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.926218666666665</v>
+        <v>9.926218666666667</v>
       </c>
       <c r="N4">
         <v>29.778656</v>
       </c>
       <c r="O4">
-        <v>0.1361377151918736</v>
+        <v>0.04697930726370939</v>
       </c>
       <c r="P4">
-        <v>0.1361377151918736</v>
+        <v>0.0469793072637094</v>
       </c>
       <c r="Q4">
-        <v>360.8603606947697</v>
+        <v>18.40540641106489</v>
       </c>
       <c r="R4">
-        <v>3247.743246252928</v>
+        <v>165.648657699584</v>
       </c>
       <c r="S4">
-        <v>0.05574633068863431</v>
+        <v>0.001604814338354855</v>
       </c>
       <c r="T4">
-        <v>0.05574633068863432</v>
+        <v>0.001604814338354856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>135.346352</v>
       </c>
       <c r="I5">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="J5">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.629167</v>
+        <v>200.005264</v>
       </c>
       <c r="N5">
-        <v>184.887501</v>
+        <v>600.0157919999999</v>
       </c>
       <c r="O5">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503665</v>
       </c>
       <c r="P5">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503667</v>
       </c>
       <c r="Q5">
-        <v>2780.427643416262</v>
+        <v>9023.327621065644</v>
       </c>
       <c r="R5">
-        <v>25023.84879074636</v>
+        <v>81209.94858959079</v>
       </c>
       <c r="S5">
-        <v>0.4295252561608097</v>
+        <v>0.7867669543691284</v>
       </c>
       <c r="T5">
-        <v>0.4295252561608097</v>
+        <v>0.7867669543691285</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>135.346352</v>
       </c>
       <c r="I6">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="J6">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.073051</v>
       </c>
       <c r="O6">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924051</v>
       </c>
       <c r="P6">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924052</v>
       </c>
       <c r="Q6">
         <v>61.25251048443911</v>
@@ -818,10 +818,10 @@
         <v>551.272594359952</v>
       </c>
       <c r="S6">
-        <v>0.009462393426644032</v>
+        <v>0.00534076264822732</v>
       </c>
       <c r="T6">
-        <v>0.009462393426644032</v>
+        <v>0.005340762648227321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>135.346352</v>
       </c>
       <c r="I7">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="J7">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.926218666666665</v>
+        <v>9.926218666666667</v>
       </c>
       <c r="N7">
         <v>29.778656</v>
       </c>
       <c r="O7">
-        <v>0.1361377151918736</v>
+        <v>0.04697930726370939</v>
       </c>
       <c r="P7">
-        <v>0.1361377151918736</v>
+        <v>0.0469793072637094</v>
       </c>
       <c r="Q7">
-        <v>447.8258285625458</v>
+        <v>447.8258285625459</v>
       </c>
       <c r="R7">
-        <v>4030.432457062912</v>
+        <v>4030.432457062913</v>
       </c>
       <c r="S7">
-        <v>0.06918090610421863</v>
+        <v>0.03904707642482512</v>
       </c>
       <c r="T7">
-        <v>0.06918090610421865</v>
+        <v>0.03904707642482513</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>21.932314</v>
       </c>
       <c r="I8">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="J8">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.629167</v>
+        <v>200.005264</v>
       </c>
       <c r="N8">
-        <v>184.887501</v>
+        <v>600.0157919999999</v>
       </c>
       <c r="O8">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503665</v>
       </c>
       <c r="P8">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503667</v>
       </c>
       <c r="Q8">
-        <v>450.5567474008126</v>
+        <v>1462.192750566965</v>
       </c>
       <c r="R8">
-        <v>4055.010726607314</v>
+        <v>13159.73475510269</v>
       </c>
       <c r="S8">
-        <v>0.06960278315480058</v>
+        <v>0.1274923160695708</v>
       </c>
       <c r="T8">
-        <v>0.06960278315480058</v>
+        <v>0.1274923160695708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>21.932314</v>
       </c>
       <c r="I9">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="J9">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.073051</v>
       </c>
       <c r="O9">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924051</v>
       </c>
       <c r="P9">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924052</v>
       </c>
       <c r="Q9">
         <v>9.925714830001553</v>
@@ -1004,10 +1004,10 @@
         <v>89.33143347001398</v>
       </c>
       <c r="S9">
-        <v>0.001533341540115487</v>
+        <v>0.0008654483971639892</v>
       </c>
       <c r="T9">
-        <v>0.001533341540115487</v>
+        <v>0.0008654483971639893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>21.932314</v>
       </c>
       <c r="I10">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="J10">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.926218666666665</v>
+        <v>9.926218666666667</v>
       </c>
       <c r="N10">
         <v>29.778656</v>
       </c>
       <c r="O10">
-        <v>0.1361377151918736</v>
+        <v>0.04697930726370939</v>
       </c>
       <c r="P10">
-        <v>0.1361377151918736</v>
+        <v>0.0469793072637094</v>
       </c>
       <c r="Q10">
-        <v>72.56831487666487</v>
+        <v>72.56831487666489</v>
       </c>
       <c r="R10">
-        <v>653.1148338899839</v>
+        <v>653.114833889984</v>
       </c>
       <c r="S10">
-        <v>0.01121047839902061</v>
+        <v>0.006327416500529409</v>
       </c>
       <c r="T10">
-        <v>0.01121047839902061</v>
+        <v>0.006327416500529411</v>
       </c>
     </row>
   </sheetData>
